--- a/WIP/HWR Core Comparison_2.3b14+WIP.xlsx
+++ b/WIP/HWR Core Comparison_2.3b14+WIP.xlsx
@@ -312,9 +312,6 @@
     <t>Target is 12725, 1k less than average of hw2.</t>
   </si>
   <si>
-    <t>Target is 225 more. Add 100 ru to kus_capitalshipdrive and kus_capitalshipchassis.</t>
-  </si>
-  <si>
     <t>Target is 21725, average of hw2.</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Ideal HW1 Cost</t>
+  </si>
+  <si>
+    <t>Target is 225 more. Add 100 ru to kus_capitalshipdrive and kus_capitalshipchassis. Nevermind, its fine after you add in a mandatory 2nd reserach ship.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
         <v>43897</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>202</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>1320</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>134</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,7 +2275,7 @@
         <v>725</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>37</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>17200</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
